--- a/biology/Médecine/Hôpital_Mère-Enfant_de_Bingerville/Hôpital_Mère-Enfant_de_Bingerville.xlsx
+++ b/biology/Médecine/Hôpital_Mère-Enfant_de_Bingerville/Hôpital_Mère-Enfant_de_Bingerville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_M%C3%A8re-Enfant_de_Bingerville</t>
+          <t>Hôpital_Mère-Enfant_de_Bingerville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Mère-Enfant de Bingerville est un hôpital à but non lucratif inauguré le 16 mars 2018, à 30 km d'Abidjan[1]. Il s’agit d’une réalisation de la Fondation Children of Africa[2], dans le secteur de la santé. L’ouverture de cet établissement permet d’améliorer l’offre de soins de santé aux populations, particulièrement en ce qui concerne la mère et l’enfant.
+L'hôpital Mère-Enfant de Bingerville est un hôpital à but non lucratif inauguré le 16 mars 2018, à 30 km d'Abidjan. Il s’agit d’une réalisation de la Fondation Children of Africa, dans le secteur de la santé. L’ouverture de cet établissement permet d’améliorer l’offre de soins de santé aux populations, particulièrement en ce qui concerne la mère et l’enfant.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_M%C3%A8re-Enfant_de_Bingerville</t>
+          <t>Hôpital_Mère-Enfant_de_Bingerville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Domaines d'intervention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital intervient sur tous les domaines liés à la santé des mères de leurs enfants, jusqu'à l'âge de 15 ans au moins. Il dispose pour les mères d'un service de chirurgie (7 blocs opératoires), d’une unité d’obstétrique, d’un bloc néonatal, d’une unité de soins intensifs, d’un service d’anesthésie-réanimation, d'un service d'aide à la procréation ainsi que d'un laboratoire d’analyses médicales et un service d’imagerie. Les interventions se font aussi bien en consultation de jour, qu'en service d'urgence ou hospitalisation classique[3] 
-Concernant les enfants, il existe des services dans toutes les spécialités : appareil digestif, urologie, traumatologie, neurochirurgie, et oncologie, avec un accent mis sur la prévention[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital intervient sur tous les domaines liés à la santé des mères de leurs enfants, jusqu'à l'âge de 15 ans au moins. Il dispose pour les mères d'un service de chirurgie (7 blocs opératoires), d’une unité d’obstétrique, d’un bloc néonatal, d’une unité de soins intensifs, d’un service d’anesthésie-réanimation, d'un service d'aide à la procréation ainsi que d'un laboratoire d’analyses médicales et un service d’imagerie. Les interventions se font aussi bien en consultation de jour, qu'en service d'urgence ou hospitalisation classique 
+Concernant les enfants, il existe des services dans toutes les spécialités : appareil digestif, urologie, traumatologie, neurochirurgie, et oncologie, avec un accent mis sur la prévention. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_M%C3%A8re-Enfant_de_Bingerville</t>
+          <t>Hôpital_Mère-Enfant_de_Bingerville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Capacités et fréquentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La partie hospitalière dispose de 130 lits.  Tous services confondus, l'hôpital a reçu 68 000 patients durant ses deux premières années d'existence, selon les chiffres annoncés par la présidente du fonds caritatif qui a porté le projet[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie hospitalière dispose de 130 lits.  Tous services confondus, l'hôpital a reçu 68 000 patients durant ses deux premières années d'existence, selon les chiffres annoncés par la présidente du fonds caritatif qui a porté le projet.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_M%C3%A8re-Enfant_de_Bingerville</t>
+          <t>Hôpital_Mère-Enfant_de_Bingerville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Agrandissement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, l'hôpital qui dispose de 16 300 m2 de surface bâtis sur un terrain de 49 000 m2 a prévu une extension afin de créer une maison de vie destinée aux enfants traités pour cancer et à leur famille[3]. En 2020 ont lieu des premières opérations sur la surdité avec la pose d'implants cochléaires[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, l'hôpital qui dispose de 16 300 m2 de surface bâtis sur un terrain de 49 000 m2 a prévu une extension afin de créer une maison de vie destinée aux enfants traités pour cancer et à leur famille. En 2020 ont lieu des premières opérations sur la surdité avec la pose d'implants cochléaires. 
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_M%C3%A8re-Enfant_de_Bingerville</t>
+          <t>Hôpital_Mère-Enfant_de_Bingerville</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Labellisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, l'hôpital a reçu un label « Qualité et sécurité des soins » de l’Assistance Publique des Hôpitaux de Paris de niveau Argent[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, l'hôpital a reçu un label « Qualité et sécurité des soins » de l’Assistance Publique des Hôpitaux de Paris de niveau Argent.
 </t>
         </is>
       </c>
